--- a/quindio.xlsx
+++ b/quindio.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rodrigo\Desktop\SOPORTE ATYCO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\desarrollamipaginaweb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEAEB533-52BD-4FC8-81AD-CDC0E53E0B76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7B0F0B2-095E-44B8-8601-03F3875FA6DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" tabRatio="885" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8678" uniqueCount="4896">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8679" uniqueCount="4897">
   <si>
     <t>Dirección MAC</t>
   </si>
@@ -14745,6 +14745,9 @@
   </si>
   <si>
     <t>liberar la 17</t>
+  </si>
+  <si>
+    <t>cambio</t>
   </si>
 </sst>
 </file>
@@ -47668,8 +47671,8 @@
   <sheetPr codeName="Hoja10"/>
   <dimension ref="A1:Q495"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="A44" sqref="A44:XFD44"/>
+    <sheetView tabSelected="1" topLeftCell="A249" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="A257" sqref="A257"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -51988,6 +51991,11 @@
       <c r="E256" s="132"/>
       <c r="F256" s="132"/>
       <c r="G256" s="133"/>
+    </row>
+    <row r="257" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A257" s="44" t="s">
+        <v>4896</v>
+      </c>
     </row>
     <row r="495" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D495" s="155">
